--- a/data/output/FV2504_FV2410/UTILMD/55037.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55037.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="218">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="218">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -796,6 +796,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U94" totalsRowShown="0">
+  <autoFilter ref="A1:U94"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1085,7 +1115,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5130,5 +5163,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55037.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55037.xlsx
@@ -1053,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1082,8 +1082,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1526,7 +1532,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1894,7 +1900,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2040,7 +2046,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2226,48 +2232,48 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V16" s="5"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
@@ -2540,48 +2546,48 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="V22" s="5"/>
+      <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
@@ -2741,7 +2747,7 @@
       <c r="A26" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -3045,29 +3051,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3083,33 +3089,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3127,35 +3133,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3171,33 +3177,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3213,33 +3219,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -3255,33 +3261,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3297,77 +3303,77 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P40" s="5"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -3640,48 +3646,48 @@
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="2"/>
       <c r="L46" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P46" s="5"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5" t="s">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V46" s="5"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="5" t="s">
@@ -3838,49 +3844,49 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>168</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P50" s="5"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>168</v>
       </c>
       <c r="V50" s="6" t="s">
@@ -4067,7 +4073,7 @@
       <c r="A54" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -4237,7 +4243,7 @@
       <c r="A58" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -4373,29 +4379,29 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11" t="s">
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4411,35 +4417,35 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4455,33 +4461,33 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4497,33 +4503,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4539,33 +4545,33 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4581,35 +4587,35 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4625,50 +4631,50 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="6" t="s">
         <v>177</v>
       </c>
@@ -4678,22 +4684,22 @@
       <c r="L68" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P68" s="5"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
       <c r="U68" s="6" t="s">
         <v>168</v>
       </c>
@@ -4871,29 +4877,29 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11" t="s">
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11" t="s">
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -4909,35 +4915,35 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q73" s="11" t="s">
+      <c r="Q73" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="R73" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11" t="s">
+      <c r="S73" s="13"/>
+      <c r="T73" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="U73" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V73" s="11"/>
+      <c r="U73" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -4953,79 +4959,79 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="U74" s="11" t="s">
+      <c r="U74" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="V74" s="11" t="s">
+      <c r="V74" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="6"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5185,7 +5191,7 @@
       <c r="A79" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -5303,7 +5309,7 @@
       <c r="A82" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -5429,7 +5435,7 @@
       <c r="A85" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -5589,7 +5595,7 @@
       <c r="A89" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="8"/>
@@ -5715,27 +5721,27 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11" t="s">
+      <c r="N92" s="13"/>
+      <c r="O92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11" t="s">
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11" t="s">
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="V92" s="11"/>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -5751,31 +5757,31 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11" t="s">
+      <c r="N93" s="13"/>
+      <c r="O93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q93" s="11" t="s">
+      <c r="Q93" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11" t="s">
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="U93" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V93" s="11"/>
+      <c r="U93" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V93" s="13"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -5791,31 +5797,31 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11" t="s">
+      <c r="N94" s="13"/>
+      <c r="O94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="Q94" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11" t="s">
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U94" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="V94" s="11"/>
+      <c r="U94" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V94" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
